--- a/Quiz3__Computer Fundamentals.xlsx
+++ b/Quiz3__Computer Fundamentals.xlsx
@@ -365,7 +365,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +394,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -487,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -554,16 +560,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -575,18 +593,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1000,10 +1009,10 @@
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="8"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1029,13 +1038,13 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1061,7 +1070,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="29"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1093,11 +1102,11 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="29"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="43">
         <v>2</v>
       </c>
       <c r="D9" s="1"/>
@@ -1125,11 +1134,11 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="28">
         <v>3</v>
       </c>
       <c r="D10" s="1"/>
@@ -1157,7 +1166,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1198,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1221,7 +1230,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1262,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1294,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
@@ -1317,11 +1326,11 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
@@ -1349,13 +1358,13 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1381,7 +1390,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
@@ -1413,11 +1422,11 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1"/>
@@ -1445,7 +1454,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1486,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1509,13 +1518,13 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1541,7 +1550,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1582,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1614,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="14" t="s">
         <v>9</v>
       </c>
@@ -1637,11 +1646,11 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A26" s="30"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1"/>
@@ -1669,13 +1678,13 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="16"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1701,7 +1710,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="14" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1742,7 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
@@ -1765,11 +1774,11 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A30" s="29"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1797,7 +1806,7 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="14" t="s">
         <v>10</v>
       </c>
@@ -1829,13 +1838,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="16"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1861,7 +1870,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A33" s="29"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="9" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1902,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A34" s="29"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="9" t="s">
         <v>8</v>
       </c>
@@ -1925,11 +1934,11 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A35" s="29"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="1"/>
@@ -1957,7 +1966,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A36" s="30"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="9" t="s">
         <v>10</v>
       </c>
@@ -1989,13 +1998,13 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="16"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2021,7 +2030,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A38" s="29"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="9" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2062,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A39" s="29"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="9" t="s">
         <v>8</v>
       </c>
@@ -2085,7 +2094,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A40" s="29"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="9" t="s">
         <v>9</v>
       </c>
@@ -2117,11 +2126,11 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A41" s="30"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="28" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="1"/>
@@ -2149,13 +2158,13 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2181,7 +2190,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A43" s="29"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="9" t="s">
         <v>7</v>
       </c>
@@ -2213,11 +2222,11 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A44" s="29"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="1"/>
@@ -2245,7 +2254,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A45" s="29"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="9" t="s">
         <v>9</v>
       </c>
@@ -2277,7 +2286,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A46" s="30"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="9" t="s">
         <v>10</v>
       </c>
@@ -2309,13 +2318,13 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="32"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="16"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2341,7 +2350,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A48" s="29"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="18" t="s">
         <v>7</v>
       </c>
@@ -2373,11 +2382,11 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A49" s="29"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="1"/>
@@ -2405,7 +2414,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A50" s="29"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="18" t="s">
         <v>9</v>
       </c>
@@ -2437,7 +2446,7 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="30"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="18" t="s">
         <v>10</v>
       </c>
@@ -2469,13 +2478,13 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2501,7 +2510,7 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A53" s="29"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="18" t="s">
         <v>7</v>
       </c>
@@ -2533,7 +2542,7 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A54" s="29"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="18" t="s">
         <v>8</v>
       </c>
@@ -2565,7 +2574,7 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A55" s="29"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="9" t="s">
         <v>9</v>
       </c>
@@ -2597,11 +2606,11 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A56" s="30"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="28" t="s">
         <v>44</v>
       </c>
       <c r="D56" s="1"/>
@@ -28250,13 +28259,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="B27:C27"/>
@@ -28265,11 +28267,18 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Quiz3__Computer Fundamentals.xlsx
+++ b/Quiz3__Computer Fundamentals.xlsx
@@ -569,12 +569,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +578,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -593,8 +593,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1009,10 +1009,10 @@
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="8"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1038,13 +1038,13 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1070,7 +1070,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1102,11 +1102,11 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="37"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="33">
         <v>2</v>
       </c>
       <c r="D9" s="1"/>
@@ -1134,7 +1134,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A10" s="37"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1230,7 +1230,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="37"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="37"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1358,13 +1358,13 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1390,7 +1390,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A19" s="37"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1518,13 +1518,13 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1550,7 +1550,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A23" s="37"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A24" s="37"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A25" s="37"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="14" t="s">
         <v>9</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="14" t="s">
         <v>10</v>
       </c>
@@ -1678,13 +1678,13 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="16"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1710,7 +1710,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A28" s="37"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="14" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A29" s="37"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A30" s="37"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="14" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A31" s="38"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="14" t="s">
         <v>10</v>
       </c>
@@ -1838,13 +1838,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="16"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1870,7 +1870,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A33" s="37"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="9" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A34" s="37"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="9" t="s">
         <v>8</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A35" s="37"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="9" t="s">
         <v>9</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A36" s="38"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="9" t="s">
         <v>10</v>
       </c>
@@ -1998,13 +1998,13 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="34"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="16"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2030,7 +2030,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A38" s="37"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="9" t="s">
         <v>7</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A39" s="37"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="9" t="s">
         <v>8</v>
       </c>
@@ -2094,11 +2094,11 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A40" s="37"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="1"/>
@@ -2126,11 +2126,11 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A41" s="38"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="33" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="1"/>
@@ -2158,13 +2158,13 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="34"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2190,7 +2190,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A43" s="37"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="9" t="s">
         <v>7</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A44" s="37"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="9" t="s">
         <v>8</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A45" s="37"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="9" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A46" s="38"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="9" t="s">
         <v>10</v>
       </c>
@@ -2318,13 +2318,13 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="34"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="16"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2350,7 +2350,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A48" s="37"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="18" t="s">
         <v>7</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A49" s="37"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="18" t="s">
         <v>8</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A50" s="37"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="18" t="s">
         <v>9</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="38"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="18" t="s">
         <v>10</v>
       </c>
@@ -2478,13 +2478,13 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="34"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2510,7 +2510,7 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A53" s="37"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="18" t="s">
         <v>7</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A54" s="37"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="18" t="s">
         <v>8</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A55" s="37"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="9" t="s">
         <v>9</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A56" s="38"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
@@ -28259,6 +28259,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="B27:C27"/>
@@ -28271,14 +28279,6 @@
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
